--- a/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA010FF-9A9B-4D1E-AFA5-CDA93F1251A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2151793A-AD83-4ED0-B324-E43C4E28C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86837A58-561C-4250-A073-794BAD07AE57}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76E2E5FB-4618-461C-A206-9C92CE24A2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>98,03%</t>
   </si>
   <si>
-    <t>89,91%</t>
+    <t>89,23%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -125,10 +125,10 @@
     <t>7,21%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -140,19 +140,16 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -164,10 +161,7 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>98,11%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -176,1012 +170,1036 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
   </si>
   <si>
     <t>94,28%</t>
@@ -1638,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E59917-DE5B-4F74-86F3-39AFB13DFAA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AE8845-74C8-4C45-A391-912EC45B6001}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1986,13 @@
         <v>82226</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -1983,10 +2001,10 @@
         <v>122868</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -1995,16 +2013,16 @@
         <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>205094</v>
+        <v>205095</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,7 +2064,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -2060,7 +2078,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2072,13 +2090,13 @@
         <v>4807</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2087,13 +2105,13 @@
         <v>10705</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2102,13 +2120,13 @@
         <v>15512</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2141,13 @@
         <v>141082</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>160</v>
@@ -2138,13 +2156,13 @@
         <v>171975</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>301</v>
@@ -2153,13 +2171,13 @@
         <v>313056</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2233,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2227,13 +2245,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2242,13 +2260,13 @@
         <v>6038</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2257,13 +2275,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,10 +2296,10 @@
         <v>103385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2293,13 +2311,13 @@
         <v>129812</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -2308,13 +2326,13 @@
         <v>233197</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2400,13 @@
         <v>3287</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2397,13 +2415,13 @@
         <v>7280</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2412,13 +2430,13 @@
         <v>10567</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2451,13 @@
         <v>133930</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -2448,13 +2466,13 @@
         <v>201497</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -2463,13 +2481,13 @@
         <v>335428</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2555,13 @@
         <v>15469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2552,13 +2570,13 @@
         <v>27366</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2567,13 +2585,13 @@
         <v>42835</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2606,13 @@
         <v>486997</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>635</v>
@@ -2603,13 +2621,13 @@
         <v>649476</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>1141</v>
@@ -2618,13 +2636,13 @@
         <v>1136473</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D266782-AF61-4F9D-97BA-DF8AA5DF79D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FC213-A506-48C0-BA98-EFD176BD16B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2840,13 +2858,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2855,13 +2873,13 @@
         <v>1131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2897,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2891,10 +2909,10 @@
         <v>24063</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2906,10 +2924,10 @@
         <v>45261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2980,13 +2998,13 @@
         <v>5368</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2995,13 +3013,13 @@
         <v>13959</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3010,13 +3028,13 @@
         <v>19327</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3049,13 @@
         <v>112982</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -3046,13 +3064,13 @@
         <v>127633</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3061,13 +3079,13 @@
         <v>240615</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3141,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3135,13 +3153,13 @@
         <v>12893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3150,13 +3168,13 @@
         <v>26582</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3165,13 +3183,13 @@
         <v>39475</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3204,13 @@
         <v>141985</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -3201,13 +3219,13 @@
         <v>164838</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>279</v>
@@ -3216,13 +3234,13 @@
         <v>306823</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3296,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3290,13 +3308,13 @@
         <v>7571</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3305,13 +3323,13 @@
         <v>19254</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3320,13 +3338,13 @@
         <v>26825</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3359,13 @@
         <v>96027</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
@@ -3356,13 +3374,13 @@
         <v>121765</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>196</v>
@@ -3371,13 +3389,13 @@
         <v>217792</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3463,10 +3481,10 @@
         <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3475,13 +3493,13 @@
         <v>26758</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3514,13 @@
         <v>152452</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -3511,13 +3529,13 @@
         <v>226153</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -3526,13 +3544,13 @@
         <v>378605</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3618,13 @@
         <v>34993</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -3615,13 +3633,13 @@
         <v>78523</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -3630,13 +3648,13 @@
         <v>113516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3669,13 @@
         <v>524644</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -3666,13 +3684,13 @@
         <v>664452</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1096</v>
@@ -3743,7 +3761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D23545-7193-4483-964D-C644A0E2F925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41265425-2DF6-43BD-8B0E-CE7A150CD211}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3969,7 +3987,7 @@
         <v>44282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>220</v>
@@ -4076,10 +4094,10 @@
         <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4112,13 @@
         <v>108096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -4109,13 +4127,13 @@
         <v>137151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
@@ -4124,13 +4142,13 @@
         <v>245248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4204,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4198,13 +4216,13 @@
         <v>5222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4213,13 +4231,13 @@
         <v>13855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4228,13 +4246,13 @@
         <v>19077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4267,13 @@
         <v>159719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -4264,13 +4282,13 @@
         <v>205308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>341</v>
@@ -4341,7 +4359,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4386,10 +4404,10 @@
         <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4422,13 @@
         <v>109016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4419,13 +4437,13 @@
         <v>129051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -4434,13 +4452,13 @@
         <v>238067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,7 +4514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4508,13 +4526,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4523,13 +4541,13 @@
         <v>13206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4538,13 +4556,13 @@
         <v>16013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4577,13 @@
         <v>171811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -4574,13 +4592,13 @@
         <v>229575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4589,13 +4607,13 @@
         <v>401387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4681,13 @@
         <v>21842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4678,13 +4696,13 @@
         <v>53406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4693,13 +4711,13 @@
         <v>75248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4732,13 @@
         <v>569486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -4729,13 +4747,13 @@
         <v>724525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>1217</v>
@@ -4744,13 +4762,13 @@
         <v>1294011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,7 +4824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B282A031-E05C-4AD5-AA4E-8DAB3FBAB03A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5498A12-7FDB-49E3-87A9-307220364C9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4844,7 +4862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4951,13 +4969,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4966,13 +4984,13 @@
         <v>5933</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4981,13 +4999,13 @@
         <v>6656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,10 +5020,10 @@
         <v>28940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5017,13 +5035,13 @@
         <v>39488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -5032,13 +5050,13 @@
         <v>68429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,10 +5127,10 @@
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5121,13 +5139,13 @@
         <v>20214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5136,13 +5154,13 @@
         <v>30549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,10 +5178,10 @@
         <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H8" s="7">
         <v>289</v>
@@ -5172,13 +5190,13 @@
         <v>127005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>478</v>
@@ -5187,13 +5205,13 @@
         <v>241647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5267,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5261,13 +5279,13 @@
         <v>9407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5276,13 +5294,13 @@
         <v>26297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5291,13 +5309,13 @@
         <v>35705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5330,13 @@
         <v>164439</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -5327,13 +5345,13 @@
         <v>216213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5342,13 +5360,13 @@
         <v>380651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,7 +5422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5416,13 +5434,13 @@
         <v>4243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5431,13 +5449,13 @@
         <v>16863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5446,13 +5464,13 @@
         <v>21106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5485,13 @@
         <v>143947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
@@ -5482,13 +5500,13 @@
         <v>264251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -5497,13 +5515,13 @@
         <v>408199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5571,13 +5589,13 @@
         <v>9117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5586,13 +5604,13 @@
         <v>21173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5601,13 +5619,13 @@
         <v>30290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5640,13 @@
         <v>211127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -5637,13 +5655,13 @@
         <v>288380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -5652,13 +5670,13 @@
         <v>499507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5744,13 @@
         <v>33826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -5741,13 +5759,13 @@
         <v>90479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -5759,10 +5777,10 @@
         <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5795,13 @@
         <v>663095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5792,13 +5810,13 @@
         <v>935338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>2513</v>
@@ -5807,13 +5825,13 @@
         <v>1598433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,7 +5887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2151793A-AD83-4ED0-B324-E43C4E28C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F25D7A5B-82BF-4B30-834D-BF8CC3C9B375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76E2E5FB-4618-461C-A206-9C92CE24A2A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE70C4B-5237-465F-A1A4-C2D17E74AD50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Con ayuda</t>
@@ -86,13 +86,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -110,16 +110,16 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,44%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,21%</t>
@@ -128,1123 +128,1063 @@
     <t>3,08%</t>
   </si>
   <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AE8845-74C8-4C45-A391-912EC45B6001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247C4A9F-C094-43B0-92E2-87FDEC902CCD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1971,7 +1911,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1926,13 @@
         <v>82226</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -2001,10 +1941,10 @@
         <v>122868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2013,16 +1953,16 @@
         <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>205095</v>
+        <v>205094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2004,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -2078,7 +2018,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2030,13 @@
         <v>4807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2105,13 +2045,13 @@
         <v>10705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2120,13 +2060,13 @@
         <v>15512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2081,13 @@
         <v>141082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>160</v>
@@ -2156,13 +2096,13 @@
         <v>171975</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>301</v>
@@ -2171,13 +2111,13 @@
         <v>313056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,7 +2173,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2185,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2260,13 +2200,13 @@
         <v>6038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2275,13 +2215,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,10 +2236,10 @@
         <v>103385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2311,13 +2251,13 @@
         <v>129812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -2326,13 +2266,13 @@
         <v>233197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2328,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2400,13 +2340,13 @@
         <v>3287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2415,13 +2355,13 @@
         <v>7280</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2430,13 +2370,13 @@
         <v>10567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2391,13 @@
         <v>133930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -2466,13 +2406,13 @@
         <v>201497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>345</v>
@@ -2481,13 +2421,13 @@
         <v>335428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,10 +2498,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2570,13 +2510,13 @@
         <v>27366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2585,13 +2525,13 @@
         <v>42835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2546,13 @@
         <v>486997</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>635</v>
@@ -2621,10 +2561,10 @@
         <v>649476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>108</v>
@@ -2719,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FC213-A506-48C0-BA98-EFD176BD16B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC8DD9D-9337-4A45-985C-31CD85844DD2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2858,13 +2798,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2873,13 +2813,13 @@
         <v>1131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2837,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2909,10 +2849,10 @@
         <v>24063</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2924,10 +2864,10 @@
         <v>45261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2998,13 +2938,13 @@
         <v>5368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3013,13 +2953,13 @@
         <v>13959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3028,13 +2968,13 @@
         <v>19327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +2989,13 @@
         <v>112982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -3064,13 +3004,13 @@
         <v>127633</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3079,13 +3019,13 @@
         <v>240615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3081,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3153,13 +3093,13 @@
         <v>12893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3168,13 +3108,13 @@
         <v>26582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3183,13 +3123,13 @@
         <v>39475</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3144,13 @@
         <v>141985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -3219,13 +3159,13 @@
         <v>164838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>279</v>
@@ -3234,13 +3174,13 @@
         <v>306823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3236,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3308,13 +3248,13 @@
         <v>7571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3323,13 +3263,13 @@
         <v>19254</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3338,13 +3278,13 @@
         <v>26825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3299,13 @@
         <v>96027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
@@ -3374,13 +3314,13 @@
         <v>121765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>196</v>
@@ -3389,13 +3329,13 @@
         <v>217792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3463,13 +3403,13 @@
         <v>9161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3478,13 +3418,13 @@
         <v>17597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3493,13 +3433,13 @@
         <v>26758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3454,13 @@
         <v>152452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -3529,13 +3469,13 @@
         <v>226153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -3544,13 +3484,13 @@
         <v>378605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3558,13 @@
         <v>34993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -3633,13 +3573,13 @@
         <v>78523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -3648,13 +3588,13 @@
         <v>113516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3609,13 @@
         <v>524644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -3684,13 +3624,13 @@
         <v>664452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>1096</v>
@@ -3699,13 +3639,13 @@
         <v>1189096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41265425-2DF6-43BD-8B0E-CE7A150CD211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885135E-C3F7-43AD-B914-4C24B0648FCC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,13 +3846,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3927,7 +3867,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3942,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,10 +3897,10 @@
         <v>20843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3975,7 +3915,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3987,10 +3927,10 @@
         <v>44282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4061,13 +4001,13 @@
         <v>6950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4076,13 +4016,13 @@
         <v>12800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4091,13 +4031,13 @@
         <v>19749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4052,13 @@
         <v>108096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -4127,28 +4067,28 @@
         <v>137151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
       </c>
       <c r="N8" s="7">
-        <v>245248</v>
+        <v>245249</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4130,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -4204,7 +4144,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4216,13 +4156,13 @@
         <v>5222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4231,13 +4171,13 @@
         <v>13855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4246,13 +4186,13 @@
         <v>19077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4207,13 @@
         <v>159719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -4282,13 +4222,13 @@
         <v>205308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>341</v>
@@ -4297,13 +4237,13 @@
         <v>365027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,7 +4299,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4371,13 +4311,13 @@
         <v>6019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4386,13 +4326,13 @@
         <v>13545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4401,13 +4341,13 @@
         <v>19564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4362,13 @@
         <v>109016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4437,13 +4377,13 @@
         <v>129051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -4452,13 +4392,13 @@
         <v>238067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4454,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4526,13 +4466,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4541,13 +4481,13 @@
         <v>13206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4556,13 +4496,13 @@
         <v>16013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4517,13 @@
         <v>171811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -4592,13 +4532,13 @@
         <v>229575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4607,13 +4547,13 @@
         <v>401387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4621,13 @@
         <v>21842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4696,13 +4636,13 @@
         <v>53406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4711,13 +4651,13 @@
         <v>75248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4672,13 @@
         <v>569486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -4747,13 +4687,13 @@
         <v>724525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>1217</v>
@@ -4762,13 +4702,13 @@
         <v>1294011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,7 +4785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5498A12-7FDB-49E3-87A9-307220364C9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB59019-D014-495A-BD93-43AA21AB86B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4862,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4969,13 +4909,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4984,13 +4924,13 @@
         <v>5933</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4999,13 +4939,13 @@
         <v>6656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,10 +4960,10 @@
         <v>28940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5035,13 +4975,13 @@
         <v>39488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -5050,13 +4990,13 @@
         <v>68429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5064,13 @@
         <v>10335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5139,13 +5079,13 @@
         <v>20214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5154,13 +5094,13 @@
         <v>30549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5115,13 @@
         <v>114642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>289</v>
@@ -5190,13 +5130,13 @@
         <v>127005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>478</v>
@@ -5205,13 +5145,13 @@
         <v>241647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5207,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5279,13 +5219,13 @@
         <v>9407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5294,13 +5234,13 @@
         <v>26297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5309,13 +5249,13 @@
         <v>35705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5270,13 @@
         <v>164439</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -5345,13 +5285,13 @@
         <v>216213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5360,13 +5300,13 @@
         <v>380651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,7 +5362,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5434,13 +5374,13 @@
         <v>4243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5449,13 +5389,13 @@
         <v>16863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5464,13 +5404,13 @@
         <v>21106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5425,13 @@
         <v>143947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
@@ -5500,13 +5440,13 @@
         <v>264251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -5515,13 +5455,13 @@
         <v>408199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5517,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5589,13 +5529,13 @@
         <v>9117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5604,13 +5544,13 @@
         <v>21173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5619,13 +5559,13 @@
         <v>30290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5580,13 @@
         <v>211127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -5655,13 +5595,13 @@
         <v>288380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -5670,13 +5610,13 @@
         <v>499507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5684,13 @@
         <v>33826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -5759,13 +5699,13 @@
         <v>90479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -5774,13 +5714,13 @@
         <v>124305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5735,13 @@
         <v>663095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5810,13 +5750,13 @@
         <v>935338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>2513</v>
@@ -5825,13 +5765,13 @@
         <v>1598433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F25D7A5B-82BF-4B30-834D-BF8CC3C9B375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B20FFED-2D94-4C68-94A9-B4ED0433F885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE70C4B-5237-465F-A1A4-C2D17E74AD50}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D670CD-8CFE-409F-8264-01BEF7D10AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -110,13 +110,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>79,44%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,1057 +125,1096 @@
     <t>7,21%</t>
   </si>
   <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>90,58%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,59%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
+    <t>6,06%</t>
+  </si>
+  <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>96,41%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -1184,7 +1223,10 @@
     <t>89,49%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247C4A9F-C094-43B0-92E2-87FDEC902CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644EDD8-F470-4DCF-8120-3F3E48B1CC9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2495,10 +2537,10 @@
         <v>15469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>99</v>
@@ -2516,7 +2558,7 @@
         <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2525,13 +2567,13 @@
         <v>42835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2588,13 @@
         <v>486997</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7">
         <v>635</v>
@@ -2561,13 +2603,13 @@
         <v>649476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>1141</v>
@@ -2576,13 +2618,13 @@
         <v>1136473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC8DD9D-9337-4A45-985C-31CD85844DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2AF82-95DD-4410-9AF7-48F807C2F700}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2676,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2789,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2798,13 +2840,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2813,13 +2855,13 @@
         <v>1131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2849,10 +2891,10 @@
         <v>24063</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2864,10 +2906,10 @@
         <v>45261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2938,13 +2980,13 @@
         <v>5368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2953,13 +2995,13 @@
         <v>13959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2968,13 +3010,13 @@
         <v>19327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +3031,13 @@
         <v>112982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -3004,13 +3046,13 @@
         <v>127633</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3019,13 +3061,13 @@
         <v>240615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3135,13 @@
         <v>12893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3108,13 +3150,13 @@
         <v>26582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3123,13 +3165,13 @@
         <v>39475</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3186,13 @@
         <v>141985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -3159,13 +3201,13 @@
         <v>164838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>279</v>
@@ -3174,13 +3216,13 @@
         <v>306823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3290,13 @@
         <v>7571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3263,13 +3305,13 @@
         <v>19254</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3278,13 +3320,13 @@
         <v>26825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3341,13 @@
         <v>96027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
@@ -3314,13 +3356,13 @@
         <v>121765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>196</v>
@@ -3329,13 +3371,13 @@
         <v>217792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3445,13 @@
         <v>9161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3418,13 +3460,13 @@
         <v>17597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3433,13 +3475,13 @@
         <v>26758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3496,13 @@
         <v>152452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -3469,13 +3511,13 @@
         <v>226153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -3484,13 +3526,13 @@
         <v>378605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3600,13 @@
         <v>34993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -3573,13 +3615,13 @@
         <v>78523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -3588,13 +3630,13 @@
         <v>113516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3651,13 @@
         <v>524644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>623</v>
@@ -3624,13 +3666,13 @@
         <v>664452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1096</v>
@@ -3639,13 +3681,13 @@
         <v>1189096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3722,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885135E-C3F7-43AD-B914-4C24B0648FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B5724E-9DAB-4BE0-8307-23E94420B3E8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3846,13 +3888,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3867,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3882,7 +3924,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,10 +3939,10 @@
         <v>20843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3915,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3930,7 +3972,7 @@
         <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4001,13 +4043,13 @@
         <v>6950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4016,13 +4058,13 @@
         <v>12800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4031,13 +4073,13 @@
         <v>19749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4094,13 @@
         <v>108096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -4067,28 +4109,28 @@
         <v>137151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>240</v>
       </c>
       <c r="N8" s="7">
-        <v>245249</v>
+        <v>245248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4172,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -4156,13 +4198,13 @@
         <v>5222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4171,13 +4213,13 @@
         <v>13855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4186,13 +4228,13 @@
         <v>19077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4249,13 @@
         <v>159719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -4222,13 +4264,13 @@
         <v>205308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>341</v>
@@ -4237,13 +4279,13 @@
         <v>365027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4353,13 @@
         <v>6019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4326,13 +4368,13 @@
         <v>13545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4341,13 +4383,13 @@
         <v>19564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4404,13 @@
         <v>109016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4377,13 +4419,13 @@
         <v>129051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -4392,13 +4434,13 @@
         <v>238067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4508,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4481,13 +4523,13 @@
         <v>13206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4496,13 +4538,13 @@
         <v>16013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4559,13 @@
         <v>171811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -4532,13 +4574,13 @@
         <v>229575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4547,13 +4589,13 @@
         <v>401387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4663,13 @@
         <v>21842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4636,13 +4678,13 @@
         <v>53406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4651,13 +4693,13 @@
         <v>75248</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4714,13 @@
         <v>569486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -4687,13 +4729,13 @@
         <v>724525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>1217</v>
@@ -4702,13 +4744,13 @@
         <v>1294011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,7 +4806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB59019-D014-495A-BD93-43AA21AB86B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D859DE9-D792-40DB-9B46-C240003BE20C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4802,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4909,13 +4951,13 @@
         <v>724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4924,13 +4966,13 @@
         <v>5933</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4939,13 +4981,13 @@
         <v>6656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,10 +5002,10 @@
         <v>28940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4975,13 +5017,13 @@
         <v>39488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -4990,13 +5032,13 @@
         <v>68429</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5106,13 @@
         <v>10335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5079,13 +5121,13 @@
         <v>20214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5094,13 +5136,13 @@
         <v>30549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5157,13 @@
         <v>114642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>289</v>
@@ -5130,13 +5172,13 @@
         <v>127005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>478</v>
@@ -5145,13 +5187,13 @@
         <v>241647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5261,13 @@
         <v>9407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5234,13 +5276,13 @@
         <v>26297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5249,13 +5291,13 @@
         <v>35705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5312,13 @@
         <v>164439</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -5285,13 +5327,13 @@
         <v>216213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5300,13 +5342,13 @@
         <v>380651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5416,13 @@
         <v>4243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5389,13 +5431,13 @@
         <v>16863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -5404,13 +5446,13 @@
         <v>21106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5467,13 @@
         <v>143947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
@@ -5440,13 +5482,13 @@
         <v>264251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -5455,13 +5497,13 @@
         <v>408199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5571,13 @@
         <v>9117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5544,13 +5586,13 @@
         <v>21173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5559,13 +5601,13 @@
         <v>30290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5622,13 @@
         <v>211127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -5595,13 +5637,13 @@
         <v>288380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -5610,13 +5652,13 @@
         <v>499507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5726,13 @@
         <v>33826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -5699,13 +5741,13 @@
         <v>90479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -5714,13 +5756,13 @@
         <v>124305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5777,13 @@
         <v>663095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -5750,13 +5792,13 @@
         <v>935338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>2513</v>
@@ -5765,13 +5807,13 @@
         <v>1598433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B20FFED-2D94-4C68-94A9-B4ED0433F885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46A9291F-5956-4CBE-8F8B-08FED8E6D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4D670CD-8CFE-409F-8264-01BEF7D10AF9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1368B0A-1159-4AD3-936D-3B2A9173013C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,1165 +68,1051 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Con ayuda</t>
   </si>
   <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644EDD8-F470-4DCF-8120-3F3E48B1CC9E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86589F1F-A6F3-424C-8D2F-213478855CBC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1756,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6389</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1771,85 +1657,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1001</v>
+        <v>3343</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>1001</v>
+        <v>9732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>112</v>
+      </c>
+      <c r="D5" s="7">
+        <v>108600</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>148</v>
+      </c>
+      <c r="I5" s="7">
+        <v>146192</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
-        <v>26374</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>260</v>
+      </c>
+      <c r="N5" s="7">
+        <v>254792</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="7">
-        <v>23324</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>52</v>
-      </c>
-      <c r="N5" s="7">
-        <v>49698</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1744,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7">
-        <v>26374</v>
+        <v>114989</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I6" s="7">
-        <v>24325</v>
+        <v>149535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="N6" s="7">
-        <v>50699</v>
+        <v>264524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6389</v>
+        <v>4807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>2343</v>
+        <v>10705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>8731</v>
+        <v>15512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D8" s="7">
-        <v>82226</v>
+        <v>141082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="I8" s="7">
-        <v>122868</v>
+        <v>171975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>205094</v>
+        <v>313056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1899,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7">
-        <v>88615</v>
+        <v>145889</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>125211</v>
+        <v>182680</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>328568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>4807</v>
+        <v>986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>10705</v>
+        <v>6038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>15512</v>
+        <v>7024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>141082</v>
+        <v>103385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>171975</v>
+        <v>129812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="N11" s="7">
-        <v>313056</v>
+        <v>233197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,153 +2054,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>145889</v>
+        <v>104371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I12" s="7">
-        <v>182680</v>
+        <v>135850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N12" s="7">
-        <v>328568</v>
+        <v>240221</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>986</v>
+        <v>3287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7280</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6038</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
       <c r="N13" s="7">
-        <v>7024</v>
+        <v>10567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="D14" s="7">
-        <v>103385</v>
+        <v>133930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>129812</v>
+        <v>201497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="N14" s="7">
-        <v>233197</v>
+        <v>335428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,153 +2209,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7">
-        <v>104371</v>
+        <v>137217</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I15" s="7">
-        <v>135850</v>
+        <v>208777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="N15" s="7">
-        <v>240221</v>
+        <v>345995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>3287</v>
+        <v>15469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>7280</v>
+        <v>27366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>10567</v>
+        <v>42835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="D17" s="7">
-        <v>133930</v>
+        <v>486997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>193</v>
+        <v>635</v>
       </c>
       <c r="I17" s="7">
-        <v>201497</v>
+        <v>649476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>345</v>
+        <v>1141</v>
       </c>
       <c r="N17" s="7">
-        <v>335428</v>
+        <v>1136473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,217 +2364,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="D18" s="7">
-        <v>137217</v>
+        <v>502466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="I18" s="7">
-        <v>208777</v>
+        <v>676842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>356</v>
+        <v>1184</v>
       </c>
       <c r="N18" s="7">
-        <v>345995</v>
+        <v>1179308</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15469</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>27366</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>42835</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>506</v>
-      </c>
-      <c r="D20" s="7">
-        <v>486997</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="7">
-        <v>635</v>
-      </c>
-      <c r="I20" s="7">
-        <v>649476</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1141</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1136473</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>523</v>
-      </c>
-      <c r="D21" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>661</v>
-      </c>
-      <c r="I21" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2701,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2AF82-95DD-4410-9AF7-48F807C2F700}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F41AEA-9963-494A-95E9-51A4694B0241}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2718,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,100 +2549,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5368</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15090</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="7">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20458</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1131</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1131</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7">
-        <v>21198</v>
+        <v>134179</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
+        <v>143</v>
+      </c>
+      <c r="I5" s="7">
+        <v>151697</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>24063</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>267</v>
+      </c>
+      <c r="N5" s="7">
+        <v>285876</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>46</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45261</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,63 +2651,63 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>21198</v>
+        <v>139547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>25194</v>
+        <v>166787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>46392</v>
+        <v>306334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>5368</v>
+        <v>12893</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2989,10 +2719,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>13959</v>
+        <v>26582</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -3004,10 +2734,10 @@
         <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>19327</v>
+        <v>39475</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>132</v>
@@ -3022,13 +2752,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7">
-        <v>112982</v>
+        <v>141985</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -3040,10 +2770,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>127633</v>
+        <v>164838</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -3055,10 +2785,10 @@
         <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="N8" s="7">
-        <v>240615</v>
+        <v>306823</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>141</v>
@@ -3076,63 +2806,63 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D9" s="7">
-        <v>118350</v>
+        <v>154878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>141592</v>
+        <v>191420</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="N9" s="7">
-        <v>259942</v>
+        <v>346298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>12893</v>
+        <v>7571</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -3144,10 +2874,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>26582</v>
+        <v>19254</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -3159,10 +2889,10 @@
         <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>39475</v>
+        <v>26825</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>150</v>
@@ -3177,13 +2907,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>141985</v>
+        <v>96027</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -3195,10 +2925,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="I11" s="7">
-        <v>164838</v>
+        <v>121765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -3210,10 +2940,10 @@
         <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="N11" s="7">
-        <v>306823</v>
+        <v>217792</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>159</v>
@@ -3231,63 +2961,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D12" s="7">
-        <v>154878</v>
+        <v>103598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I12" s="7">
-        <v>191420</v>
+        <v>141019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N12" s="7">
-        <v>346298</v>
+        <v>244617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7571</v>
+        <v>9161</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3299,10 +3029,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>19254</v>
+        <v>17597</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3314,70 +3044,70 @@
         <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>26825</v>
+        <v>26758</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7">
-        <v>96027</v>
+        <v>152452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>121765</v>
+        <v>226153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="N14" s="7">
-        <v>217792</v>
+        <v>378605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,144 +3116,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>103598</v>
+        <v>161613</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>141019</v>
+        <v>243750</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="N15" s="7">
-        <v>244617</v>
+        <v>405363</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>9161</v>
+        <v>34993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>17597</v>
+        <v>78523</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>26758</v>
+        <v>113516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>139</v>
+        <v>473</v>
       </c>
       <c r="D17" s="7">
-        <v>152452</v>
+        <v>524644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>215</v>
+        <v>623</v>
       </c>
       <c r="I17" s="7">
-        <v>226153</v>
+        <v>664452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>354</v>
+        <v>1096</v>
       </c>
       <c r="N17" s="7">
-        <v>378605</v>
+        <v>1189096</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>193</v>
@@ -3541,217 +3271,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>161613</v>
+        <v>559637</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="I18" s="7">
-        <v>243750</v>
+        <v>742975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>378</v>
+        <v>1198</v>
       </c>
       <c r="N18" s="7">
-        <v>405363</v>
+        <v>1302612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
-        <v>34993</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78523</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="7">
-        <v>102</v>
-      </c>
-      <c r="N19" s="7">
-        <v>113516</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>473</v>
-      </c>
-      <c r="D20" s="7">
-        <v>524644</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="7">
-        <v>623</v>
-      </c>
-      <c r="I20" s="7">
-        <v>664452</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1096</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1189096</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>504</v>
-      </c>
-      <c r="D21" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>694</v>
-      </c>
-      <c r="I21" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3764,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B5724E-9DAB-4BE0-8307-23E94420B3E8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77496C0E-86F2-4C8A-98DE-B1B2037E3591}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3781,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,100 +3456,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>845</v>
+        <v>7794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>845</v>
+        <v>20594</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7">
-        <v>20843</v>
+        <v>128940</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>23439</v>
+        <v>160591</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="N5" s="7">
-        <v>44282</v>
+        <v>289531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3558,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>21688</v>
+        <v>136734</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>23439</v>
+        <v>173391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="N6" s="7">
-        <v>45127</v>
+        <v>310125</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6950</v>
+        <v>5222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>12800</v>
+        <v>13855</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>19749</v>
+        <v>19077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>108096</v>
+        <v>159719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>137151</v>
+        <v>205308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="N8" s="7">
-        <v>245248</v>
+        <v>365027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,54 +3713,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>115046</v>
+        <v>164941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I9" s="7">
-        <v>149951</v>
+        <v>219163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>384104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4195,97 +3769,97 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5222</v>
+        <v>6019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>13855</v>
+        <v>13545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>19077</v>
+        <v>19564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>159719</v>
+        <v>109016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>205308</v>
+        <v>129051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="N11" s="7">
-        <v>365027</v>
+        <v>238067</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,153 +3868,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7">
-        <v>164941</v>
+        <v>115035</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>219163</v>
+        <v>142596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7">
-        <v>384104</v>
+        <v>257631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6019</v>
+        <v>2807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>13545</v>
+        <v>13206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>19564</v>
+        <v>16013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>109016</v>
+        <v>171811</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>129051</v>
+        <v>229575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="N14" s="7">
-        <v>238067</v>
+        <v>401387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,153 +4023,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>115035</v>
+        <v>174618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
-        <v>142596</v>
+        <v>242781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="N15" s="7">
-        <v>257631</v>
+        <v>417400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>2807</v>
+        <v>21842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>13206</v>
+        <v>53406</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>16013</v>
+        <v>75248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>187</v>
+        <v>603</v>
       </c>
       <c r="D17" s="7">
-        <v>171811</v>
+        <v>569486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>189</v>
+        <v>614</v>
       </c>
       <c r="I17" s="7">
-        <v>229575</v>
+        <v>724525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>376</v>
+        <v>1217</v>
       </c>
       <c r="N17" s="7">
-        <v>401387</v>
+        <v>1294011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,217 +4178,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="D18" s="7">
-        <v>174618</v>
+        <v>591328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>198</v>
+        <v>655</v>
       </c>
       <c r="I18" s="7">
-        <v>242781</v>
+        <v>777931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>388</v>
+        <v>1282</v>
       </c>
       <c r="N18" s="7">
-        <v>417400</v>
+        <v>1369259</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21842</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53406</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75248</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>603</v>
-      </c>
-      <c r="D20" s="7">
-        <v>569486</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="7">
-        <v>614</v>
-      </c>
-      <c r="I20" s="7">
-        <v>724525</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1217</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1294011</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>627</v>
-      </c>
-      <c r="D21" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>655</v>
-      </c>
-      <c r="I21" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4827,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D859DE9-D792-40DB-9B46-C240003BE20C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D8499-B3BB-41D5-A569-276AAB55552F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4844,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4945,100 +4363,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>724</v>
+        <v>10534</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>5933</v>
+        <v>24245</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>6656</v>
+        <v>34779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="D5" s="7">
-        <v>28940</v>
+        <v>137549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>386</v>
       </c>
       <c r="I5" s="7">
-        <v>39488</v>
+        <v>154918</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>142</v>
+        <v>620</v>
       </c>
       <c r="N5" s="7">
-        <v>68429</v>
+        <v>292467</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,153 +4465,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D6" s="7">
-        <v>29664</v>
+        <v>148083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="I6" s="7">
-        <v>45421</v>
+        <v>179163</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="N6" s="7">
-        <v>75085</v>
+        <v>327246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>10335</v>
+        <v>8762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>20214</v>
+        <v>23919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>30549</v>
+        <v>32681</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7">
-        <v>114642</v>
+        <v>151352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="I8" s="7">
-        <v>127005</v>
+        <v>194476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>478</v>
+        <v>639</v>
       </c>
       <c r="N8" s="7">
-        <v>241647</v>
+        <v>345828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,153 +4620,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7">
-        <v>124977</v>
+        <v>160114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="I9" s="7">
-        <v>147219</v>
+        <v>218395</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>540</v>
+        <v>702</v>
       </c>
       <c r="N9" s="7">
-        <v>272196</v>
+        <v>378509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9407</v>
+        <v>3861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>26297</v>
+        <v>14937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>35705</v>
+        <v>18798</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7">
-        <v>164439</v>
+        <v>133091</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="I11" s="7">
-        <v>216213</v>
+        <v>345319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>639</v>
+        <v>452</v>
       </c>
       <c r="N11" s="7">
-        <v>380651</v>
+        <v>478411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,153 +4775,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D12" s="7">
-        <v>173846</v>
+        <v>136952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>448</v>
+        <v>288</v>
       </c>
       <c r="I12" s="7">
-        <v>242510</v>
+        <v>360256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>702</v>
+        <v>481</v>
       </c>
       <c r="N12" s="7">
-        <v>416356</v>
+        <v>497209</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>4243</v>
+        <v>8348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>16863</v>
+        <v>18680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>21106</v>
+        <v>27029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="D14" s="7">
-        <v>143947</v>
+        <v>196681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="I14" s="7">
-        <v>264251</v>
+        <v>256943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>802</v>
       </c>
       <c r="N14" s="7">
-        <v>408199</v>
+        <v>453624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,153 +4930,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="D15" s="7">
-        <v>148190</v>
+        <v>205029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="I15" s="7">
-        <v>281114</v>
+        <v>275623</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>481</v>
+        <v>851</v>
       </c>
       <c r="N15" s="7">
-        <v>429305</v>
+        <v>480653</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>9117</v>
+        <v>31505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I16" s="7">
-        <v>21173</v>
+        <v>81781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="N16" s="7">
-        <v>30290</v>
+        <v>113286</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>313</v>
+        <v>974</v>
       </c>
       <c r="D17" s="7">
-        <v>211127</v>
+        <v>618673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
-        <v>489</v>
+        <v>1539</v>
       </c>
       <c r="I17" s="7">
-        <v>288380</v>
+        <v>951657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
-        <v>802</v>
+        <v>2513</v>
       </c>
       <c r="N17" s="7">
-        <v>499507</v>
+        <v>1570331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,217 +5085,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>327</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="7">
-        <v>220244</v>
+        <v>650178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>524</v>
+        <v>1706</v>
       </c>
       <c r="I18" s="7">
-        <v>309553</v>
+        <v>1033438</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>851</v>
+        <v>2733</v>
       </c>
       <c r="N18" s="7">
-        <v>529797</v>
+        <v>1683617</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33826</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="7">
-        <v>167</v>
-      </c>
-      <c r="I19" s="7">
-        <v>90479</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="7">
-        <v>220</v>
-      </c>
-      <c r="N19" s="7">
-        <v>124305</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>974</v>
-      </c>
-      <c r="D20" s="7">
-        <v>663095</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1539</v>
-      </c>
-      <c r="I20" s="7">
-        <v>935338</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2513</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1598433</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1027</v>
-      </c>
-      <c r="D21" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1706</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1025817</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1722738</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
